--- a/medicine/Enfance/Fantômette_dans_le_piège/Fantômette_dans_le_piège.xlsx
+++ b/medicine/Enfance/Fantômette_dans_le_piège/Fantômette_dans_le_piège.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_dans_le_pi%C3%A8ge</t>
+          <t>Fantômette_dans_le_piège</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fantômette dans le piège est le 21e roman de la série humoristique Fantômette créée par Georges Chaulet.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_dans_le_pi%C3%A8ge</t>
+          <t>Fantômette_dans_le_piège</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises.
 Le roman Fantômette dans le piège a donc pu être vendu à environ 200 000 exemplaires.
-Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais[2].
+Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_dans_le_pi%C3%A8ge</t>
+          <t>Fantômette_dans_le_piège</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Personnages « gentils » récurrents 
 Françoise Dupont / Fantômette : héroïne du roman.
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_dans_le_pi%C3%A8ge</t>
+          <t>Fantômette_dans_le_piège</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée non abrégée parue en 1972 en langue française.
 Mise en place de l'intrigue
@@ -617,7 +635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_dans_le_pi%C3%A8ge</t>
+          <t>Fantômette_dans_le_piège</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,7 +653,9 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'architecte Mykonos avait déjà été croisé dans Fantômette et le Trésor du pharaon (1970).
 Johnny Baratino avait déjà été croisé dans le roman Fantômette et la Lampe merveilleuse (1969) et sera de nouveau croisé dans Fantômette et le Magicien (2009).
